--- a/coordintes_xyz.xlsx
+++ b/coordintes_xyz.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\Foodcycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF589D03-C736-442C-B5C4-736E53339A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DF03C56-458D-44A2-81DC-6EBF30C7D9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67C7A134-BF8A-43B0-9D1D-E609199045B8}"/>
+    <workbookView xWindow="2220" yWindow="1812" windowWidth="10788" windowHeight="8880" xr2:uid="{427386E7-9D75-47AB-984A-CA8FFC5ACA28}"/>
   </bookViews>
   <sheets>
-    <sheet name="vacant_coordinate" sheetId="1" r:id="rId1"/>
-    <sheet name="waste_coordinate" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -395,7 +395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751B3425-92EA-44EB-BC34-27F4C84F8A15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4F10FA-5EEC-40C2-B309-0B5B839E5DF5}">
   <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2025,12 +2025,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FFBC12-B615-45A6-B741-FDA5A4F066A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444C6781-C0D8-4408-B3DF-05960B0F198A}">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/coordintes_xyz.xlsx
+++ b/coordintes_xyz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\Foodcycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DF03C56-458D-44A2-81DC-6EBF30C7D9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15BC81E0-93CB-4F09-9C1B-672B7EB37C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1812" windowWidth="10788" windowHeight="8880" xr2:uid="{427386E7-9D75-47AB-984A-CA8FFC5ACA28}"/>
+    <workbookView xWindow="3264" yWindow="2856" windowWidth="10788" windowHeight="8880" xr2:uid="{396B6FB7-F597-4BE7-9696-05EF02F5DF1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4F10FA-5EEC-40C2-B309-0B5B839E5DF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DABABC-7EED-46D0-8D63-0F52B12D9C5C}">
   <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -454,7 +454,7 @@
         <v>556.13217699999996</v>
       </c>
       <c r="C5">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2025,7 +2025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444C6781-C0D8-4408-B3DF-05960B0F198A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF29479A-FCF0-44E2-90F1-9FB321002AA5}">
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/coordintes_xyz.xlsx
+++ b/coordintes_xyz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\Foodcycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15BC81E0-93CB-4F09-9C1B-672B7EB37C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F4BF0CA-8408-4D0A-9582-36F79DA4DF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3264" yWindow="2856" windowWidth="10788" windowHeight="8880" xr2:uid="{396B6FB7-F597-4BE7-9696-05EF02F5DF1D}"/>
+    <workbookView xWindow="3612" yWindow="3204" windowWidth="10788" windowHeight="8880" xr2:uid="{7DA028EA-B0DB-4B18-9D40-62DD8995A2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,10 +395,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DABABC-7EED-46D0-8D63-0F52B12D9C5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19703E8E-80F2-4BD7-89FA-07FA6BE29C34}">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -443,7 +443,7 @@
         <v>400.34173700000002</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>556.13217699999996</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -509,7 +509,7 @@
         <v>584.98792800000001</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -553,7 +553,7 @@
         <v>708.54326300000002</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -630,7 +630,7 @@
         <v>462.26593000000003</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -663,7 +663,7 @@
         <v>565.39589799999999</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -685,7 +685,7 @@
         <v>469.39727099999999</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -696,7 +696,7 @@
         <v>678.27194199999997</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -707,7 +707,7 @@
         <v>759.76106500000003</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -817,7 +817,7 @@
         <v>182.612876</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -839,7 +839,7 @@
         <v>361.299511</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -850,7 +850,7 @@
         <v>447.71459299999998</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -861,7 +861,7 @@
         <v>255.457019</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -905,7 +905,7 @@
         <v>560.58027700000002</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -938,7 +938,7 @@
         <v>604.05378299999995</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -982,7 +982,7 @@
         <v>242.452808</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
         <v>268.94209899999998</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1015,7 +1015,7 @@
         <v>230.737664</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1048,7 +1048,7 @@
         <v>359.892335</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1059,7 +1059,7 @@
         <v>282.70604700000001</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1070,7 +1070,7 @@
         <v>282.70604700000001</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1081,7 +1081,7 @@
         <v>340.59576299999998</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1092,7 +1092,7 @@
         <v>321.29919100000001</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1103,7 +1103,7 @@
         <v>321.29919100000001</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1114,7 +1114,7 @@
         <v>359.892335</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
         <v>302.00261899999998</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1180,7 +1180,7 @@
         <v>698.01969799999995</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1202,7 +1202,7 @@
         <v>730.07885399999998</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1213,7 +1213,7 @@
         <v>199.24526599999999</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1235,7 +1235,7 @@
         <v>641.80794500000002</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1279,7 +1279,7 @@
         <v>201.34272000000001</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1290,7 +1290,7 @@
         <v>592.55805999999995</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1356,7 +1356,7 @@
         <v>641.80794500000002</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1378,7 +1378,7 @@
         <v>243.71127999999999</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
         <v>239.93586300000001</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>243.29178899999999</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -1433,7 +1433,7 @@
         <v>243.29178899999999</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1455,7 +1455,7 @@
         <v>402.27876099999997</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1488,7 +1488,7 @@
         <v>711.48983699999997</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -1543,7 +1543,7 @@
         <v>725.28659300000004</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -1554,7 +1554,7 @@
         <v>199.66475700000001</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -1587,7 +1587,7 @@
         <v>220.91717800000001</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -1609,7 +1609,7 @@
         <v>479.88453900000002</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -1631,7 +1631,7 @@
         <v>389.69403999999997</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -1664,7 +1664,7 @@
         <v>203.44017299999999</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -1686,7 +1686,7 @@
         <v>218.54183800000001</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -1708,7 +1708,7 @@
         <v>481.562501</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -1719,7 +1719,7 @@
         <v>443.80833899999999</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -1752,7 +1752,7 @@
         <v>518.89700500000004</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -1763,7 +1763,7 @@
         <v>650.19775900000002</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -1796,7 +1796,7 @@
         <v>481.562501</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -1818,7 +1818,7 @@
         <v>585.07794200000001</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -1829,7 +1829,7 @@
         <v>442.54986700000001</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -1840,7 +1840,7 @@
         <v>522.281747</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>712.28238099999999</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -1884,7 +1884,7 @@
         <v>616.88201900000001</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -1906,7 +1906,7 @@
         <v>197.56730400000001</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -1917,7 +1917,7 @@
         <v>455.973569</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -1939,7 +1939,7 @@
         <v>516.67784500000005</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -1972,7 +1972,7 @@
         <v>622.93086400000004</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -2005,7 +2005,7 @@
         <v>605.73174600000004</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -2025,7 +2025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF29479A-FCF0-44E2-90F1-9FB321002AA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECD2133-9A2C-4896-A9FF-6AFAF683BE40}">
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/coordintes_xyz.xlsx
+++ b/coordintes_xyz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\Foodcycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F4BF0CA-8408-4D0A-9582-36F79DA4DF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65858D58-F7D7-4BAD-B572-C6F33EFF9075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3612" yWindow="3204" windowWidth="10788" windowHeight="8880" xr2:uid="{7DA028EA-B0DB-4B18-9D40-62DD8995A2D1}"/>
+    <workbookView xWindow="3612" yWindow="3204" windowWidth="10788" windowHeight="8880" xr2:uid="{7A62FAF4-A0FA-4EC9-B8A1-739793C10158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,10 +395,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19703E8E-80F2-4BD7-89FA-07FA6BE29C34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88085E76-17F1-426E-8CFD-E2B899F0E9C8}">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -443,7 +443,7 @@
         <v>400.34173700000002</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>556.13217699999996</v>
       </c>
       <c r="C5">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -509,7 +509,7 @@
         <v>584.98792800000001</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -553,7 +553,7 @@
         <v>708.54326300000002</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -630,7 +630,7 @@
         <v>462.26593000000003</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -663,7 +663,7 @@
         <v>565.39589799999999</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -685,7 +685,7 @@
         <v>469.39727099999999</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -696,7 +696,7 @@
         <v>678.27194199999997</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -707,7 +707,7 @@
         <v>759.76106500000003</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -817,7 +817,7 @@
         <v>182.612876</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -839,7 +839,7 @@
         <v>361.299511</v>
       </c>
       <c r="C40">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -850,7 +850,7 @@
         <v>447.71459299999998</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -861,7 +861,7 @@
         <v>255.457019</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -905,7 +905,7 @@
         <v>560.58027700000002</v>
       </c>
       <c r="C46">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -938,7 +938,7 @@
         <v>604.05378299999995</v>
       </c>
       <c r="C49">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -982,7 +982,7 @@
         <v>242.452808</v>
       </c>
       <c r="C53">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
         <v>268.94209899999998</v>
       </c>
       <c r="C54">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1015,7 +1015,7 @@
         <v>230.737664</v>
       </c>
       <c r="C56">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1048,7 +1048,7 @@
         <v>359.892335</v>
       </c>
       <c r="C59">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1059,7 +1059,7 @@
         <v>282.70604700000001</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1070,7 +1070,7 @@
         <v>282.70604700000001</v>
       </c>
       <c r="C61">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1081,7 +1081,7 @@
         <v>340.59576299999998</v>
       </c>
       <c r="C62">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1092,7 +1092,7 @@
         <v>321.29919100000001</v>
       </c>
       <c r="C63">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1103,7 +1103,7 @@
         <v>321.29919100000001</v>
       </c>
       <c r="C64">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1114,7 +1114,7 @@
         <v>359.892335</v>
       </c>
       <c r="C65">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
         <v>302.00261899999998</v>
       </c>
       <c r="C66">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1180,7 +1180,7 @@
         <v>698.01969799999995</v>
       </c>
       <c r="C71">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1202,7 +1202,7 @@
         <v>730.07885399999998</v>
       </c>
       <c r="C73">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1213,7 +1213,7 @@
         <v>199.24526599999999</v>
       </c>
       <c r="C74">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1235,7 +1235,7 @@
         <v>641.80794500000002</v>
       </c>
       <c r="C76">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1279,7 +1279,7 @@
         <v>201.34272000000001</v>
       </c>
       <c r="C80">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1290,7 +1290,7 @@
         <v>592.55805999999995</v>
       </c>
       <c r="C81">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1356,7 +1356,7 @@
         <v>641.80794500000002</v>
       </c>
       <c r="C87">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1378,7 +1378,7 @@
         <v>243.71127999999999</v>
       </c>
       <c r="C89">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
         <v>239.93586300000001</v>
       </c>
       <c r="C90">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>243.29178899999999</v>
       </c>
       <c r="C93">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -1433,7 +1433,7 @@
         <v>243.29178899999999</v>
       </c>
       <c r="C94">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1455,7 +1455,7 @@
         <v>402.27876099999997</v>
       </c>
       <c r="C96">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1488,7 +1488,7 @@
         <v>711.48983699999997</v>
       </c>
       <c r="C99">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -1543,7 +1543,7 @@
         <v>725.28659300000004</v>
       </c>
       <c r="C104">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -1554,7 +1554,7 @@
         <v>199.66475700000001</v>
       </c>
       <c r="C105">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -1587,7 +1587,7 @@
         <v>220.91717800000001</v>
       </c>
       <c r="C108">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -1609,7 +1609,7 @@
         <v>479.88453900000002</v>
       </c>
       <c r="C110">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -1631,7 +1631,7 @@
         <v>389.69403999999997</v>
       </c>
       <c r="C112">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -1664,7 +1664,7 @@
         <v>203.44017299999999</v>
       </c>
       <c r="C115">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -1686,7 +1686,7 @@
         <v>218.54183800000001</v>
       </c>
       <c r="C117">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -1708,7 +1708,7 @@
         <v>481.562501</v>
       </c>
       <c r="C119">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -1719,7 +1719,7 @@
         <v>443.80833899999999</v>
       </c>
       <c r="C120">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -1752,7 +1752,7 @@
         <v>518.89700500000004</v>
       </c>
       <c r="C123">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -1763,7 +1763,7 @@
         <v>650.19775900000002</v>
       </c>
       <c r="C124">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -1796,7 +1796,7 @@
         <v>481.562501</v>
       </c>
       <c r="C127">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -1818,7 +1818,7 @@
         <v>585.07794200000001</v>
       </c>
       <c r="C129">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -1829,7 +1829,7 @@
         <v>442.54986700000001</v>
       </c>
       <c r="C130">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -1840,7 +1840,7 @@
         <v>522.281747</v>
       </c>
       <c r="C131">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>712.28238099999999</v>
       </c>
       <c r="C133">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -1884,7 +1884,7 @@
         <v>616.88201900000001</v>
       </c>
       <c r="C135">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -1906,7 +1906,7 @@
         <v>197.56730400000001</v>
       </c>
       <c r="C137">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -1917,7 +1917,7 @@
         <v>455.973569</v>
       </c>
       <c r="C138">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -1939,7 +1939,7 @@
         <v>516.67784500000005</v>
       </c>
       <c r="C140">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -1972,7 +1972,7 @@
         <v>622.93086400000004</v>
       </c>
       <c r="C143">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -2005,7 +2005,7 @@
         <v>605.73174600000004</v>
       </c>
       <c r="C146">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -2025,7 +2025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECD2133-9A2C-4896-A9FF-6AFAF683BE40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2DE224-DBA9-4546-9E73-2CC281D3B403}">
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
